--- a/vedomost.pm19-2.xlsx
+++ b/vedomost.pm19-2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>ФГАОУ ВО «Северо-Восточный федеральный университет им.М.К.Аммосова</t>
   </si>
@@ -89,7 +89,7 @@
     <t>1 контр. срез (max=34)</t>
   </si>
   <si>
-    <t>2 контр. срез (max=36)</t>
+    <t>2 контр. срез (max=60)</t>
   </si>
   <si>
     <t>1</t>
@@ -104,6 +104,9 @@
     <t>22,0</t>
   </si>
   <si>
+    <t>42,0</t>
+  </si>
+  <si>
     <t>0,0</t>
   </si>
   <si>
@@ -119,6 +122,9 @@
     <t>8,0</t>
   </si>
   <si>
+    <t>23,0</t>
+  </si>
+  <si>
     <t>Данилов Владислав Максимович</t>
   </si>
   <si>
@@ -128,6 +134,9 @@
     <t>20,0</t>
   </si>
   <si>
+    <t>40,0</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -137,6 +146,9 @@
     <t>191149</t>
   </si>
   <si>
+    <t>35,0</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -158,6 +170,9 @@
     <t>191163</t>
   </si>
   <si>
+    <t>30,0</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -179,6 +194,9 @@
     <t>10,0</t>
   </si>
   <si>
+    <t>25,0</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
@@ -191,6 +209,9 @@
     <t>12,0</t>
   </si>
   <si>
+    <t>27,0</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -200,6 +221,9 @@
     <t>191156</t>
   </si>
   <si>
+    <t>32,0</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -210,6 +234,9 @@
   </si>
   <si>
     <t>4,0</t>
+  </si>
+  <si>
+    <t>14,0</t>
   </si>
   <si>
     <t>12</t>
@@ -836,7 +863,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13" s="6" t="n"/>
       <c r="H13" s="6" t="n"/>
@@ -846,22 +873,22 @@
     </row>
     <row customHeight="1" ht="16" r="14" spans="1:11">
       <c r="A14" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14" s="6" t="n"/>
       <c r="H14" s="6" t="n"/>
@@ -874,19 +901,19 @@
         <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" s="6" t="n"/>
       <c r="H15" s="6" t="n"/>
@@ -896,22 +923,22 @@
     </row>
     <row customHeight="1" ht="16" r="16" spans="1:11">
       <c r="A16" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="E16" s="6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16" s="6" t="n"/>
       <c r="H16" s="6" t="n"/>
@@ -921,22 +948,22 @@
     </row>
     <row customHeight="1" ht="16" r="17" spans="1:11">
       <c r="A17" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" s="6" t="n"/>
       <c r="H17" s="6" t="n"/>
@@ -946,22 +973,22 @@
     </row>
     <row customHeight="1" ht="16" r="18" spans="1:11">
       <c r="A18" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" s="6" t="n"/>
       <c r="H18" s="6" t="n"/>
@@ -971,22 +998,22 @@
     </row>
     <row customHeight="1" ht="16" r="19" spans="1:11">
       <c r="A19" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19" s="6" t="n"/>
       <c r="H19" s="6" t="n"/>
@@ -996,22 +1023,22 @@
     </row>
     <row customHeight="1" ht="16" r="20" spans="1:11">
       <c r="A20" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G20" s="6" t="n"/>
       <c r="H20" s="6" t="n"/>
@@ -1021,22 +1048,22 @@
     </row>
     <row customHeight="1" ht="16" r="21" spans="1:11">
       <c r="A21" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" s="6" t="n"/>
       <c r="H21" s="6" t="n"/>
@@ -1046,22 +1073,22 @@
     </row>
     <row customHeight="1" ht="16" r="22" spans="1:11">
       <c r="A22" s="6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22" s="6" t="n"/>
       <c r="H22" s="6" t="n"/>
@@ -1071,22 +1098,22 @@
     </row>
     <row customHeight="1" ht="16" r="23" spans="1:11">
       <c r="A23" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G23" s="6" t="n"/>
       <c r="H23" s="6" t="n"/>
@@ -1096,22 +1123,22 @@
     </row>
     <row customHeight="1" ht="16" r="24" spans="1:11">
       <c r="A24" s="6" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" s="6" t="n"/>
       <c r="H24" s="6" t="n"/>
@@ -1121,22 +1148,22 @@
     </row>
     <row customHeight="1" ht="16" r="25" spans="1:11">
       <c r="A25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="F25" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25" s="6" t="n"/>
       <c r="H25" s="6" t="n"/>
@@ -1146,22 +1173,22 @@
     </row>
     <row customHeight="1" ht="16" r="26" spans="1:11">
       <c r="A26" s="6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26" s="6" t="n"/>
       <c r="H26" s="6" t="n"/>
@@ -1171,22 +1198,22 @@
     </row>
     <row customHeight="1" ht="16" r="27" spans="1:11">
       <c r="A27" s="6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G27" s="6" t="n"/>
       <c r="H27" s="6" t="n"/>
@@ -1196,22 +1223,22 @@
     </row>
     <row customHeight="1" ht="16" r="28" spans="1:11">
       <c r="A28" s="6" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G28" s="6" t="n"/>
       <c r="H28" s="6" t="n"/>

--- a/vedomost.pm19-2.xlsx
+++ b/vedomost.pm19-2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>ФГАОУ ВО «Северо-Восточный федеральный университет им.М.К.Аммосова</t>
   </si>
@@ -107,24 +107,27 @@
     <t>42,0</t>
   </si>
   <si>
+    <t>95,0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Атласова Сардаана Леонидовна</t>
+  </si>
+  <si>
+    <t>191151</t>
+  </si>
+  <si>
+    <t>8,0</t>
+  </si>
+  <si>
+    <t>23,0</t>
+  </si>
+  <si>
     <t>0,0</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Атласова Сардаана Леонидовна</t>
-  </si>
-  <si>
-    <t>191151</t>
-  </si>
-  <si>
-    <t>8,0</t>
-  </si>
-  <si>
-    <t>23,0</t>
-  </si>
-  <si>
     <t>Данилов Владислав Максимович</t>
   </si>
   <si>
@@ -176,106 +179,97 @@
     <t>7</t>
   </si>
   <si>
-    <t>Логанов Игорь Игоревич</t>
-  </si>
-  <si>
-    <t>191155</t>
+    <t>Мохов Петр Владиславович</t>
+  </si>
+  <si>
+    <t>191174</t>
+  </si>
+  <si>
+    <t>10,0</t>
+  </si>
+  <si>
+    <t>25,0</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>Мохов Петр Владиславович</t>
-  </si>
-  <si>
-    <t>191174</t>
-  </si>
-  <si>
-    <t>10,0</t>
-  </si>
-  <si>
-    <t>25,0</t>
+    <t>Мукминова Ольга Алексеевна</t>
+  </si>
+  <si>
+    <t>191157</t>
+  </si>
+  <si>
+    <t>12,0</t>
+  </si>
+  <si>
+    <t>27,0</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>Мукминова Ольга Алексеевна</t>
-  </si>
-  <si>
-    <t>191157</t>
-  </si>
-  <si>
-    <t>12,0</t>
-  </si>
-  <si>
-    <t>27,0</t>
+    <t>Подорожная Екатерина Сергеевна</t>
+  </si>
+  <si>
+    <t>191156</t>
+  </si>
+  <si>
+    <t>32,0</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>Подорожная Екатерина Сергеевна</t>
-  </si>
-  <si>
-    <t>191156</t>
-  </si>
-  <si>
-    <t>32,0</t>
+    <t>Попов Валерий Александрович</t>
+  </si>
+  <si>
+    <t>191179</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>14,0</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>Попов Валерий Александрович</t>
-  </si>
-  <si>
-    <t>191179</t>
-  </si>
-  <si>
-    <t>4,0</t>
-  </si>
-  <si>
-    <t>14,0</t>
+    <t>Потапова Нина Гаврильевна</t>
+  </si>
+  <si>
+    <t>191180</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>Потапова Нина Гаврильевна</t>
-  </si>
-  <si>
-    <t>191180</t>
+    <t>Самойлова Мария Геннадиевна</t>
+  </si>
+  <si>
+    <t>191150</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>Самойлова Мария Геннадиевна</t>
-  </si>
-  <si>
-    <t>191150</t>
+    <t>Сельтюкова Аэлита Гаврильевна</t>
+  </si>
+  <si>
+    <t>191167</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>Сельтюкова Аэлита Гаврильевна</t>
-  </si>
-  <si>
-    <t>191167</t>
+    <t>Фролов Федор Николаевич</t>
+  </si>
+  <si>
+    <t>191152</t>
   </si>
   <si>
     <t>15</t>
-  </si>
-  <si>
-    <t>Фролов Федор Николаевич</t>
-  </si>
-  <si>
-    <t>191152</t>
-  </si>
-  <si>
-    <t>16</t>
   </si>
   <si>
     <t>Хохолов Артём Николаевич</t>
@@ -672,7 +666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -888,7 +882,7 @@
         <v>35</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6" t="n"/>
       <c r="H14" s="6" t="n"/>
@@ -901,16 +895,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>30</v>
@@ -923,22 +917,22 @@
     </row>
     <row customHeight="1" ht="16" r="16" spans="1:11">
       <c r="A16" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G16" s="6" t="n"/>
       <c r="H16" s="6" t="n"/>
@@ -948,22 +942,22 @@
     </row>
     <row customHeight="1" ht="16" r="17" spans="1:11">
       <c r="A17" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G17" s="6" t="n"/>
       <c r="H17" s="6" t="n"/>
@@ -973,22 +967,22 @@
     </row>
     <row customHeight="1" ht="16" r="18" spans="1:11">
       <c r="A18" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G18" s="6" t="n"/>
       <c r="H18" s="6" t="n"/>
@@ -998,22 +992,22 @@
     </row>
     <row customHeight="1" ht="16" r="19" spans="1:11">
       <c r="A19" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G19" s="6" t="n"/>
       <c r="H19" s="6" t="n"/>
@@ -1023,22 +1017,22 @@
     </row>
     <row customHeight="1" ht="16" r="20" spans="1:11">
       <c r="A20" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G20" s="6" t="n"/>
       <c r="H20" s="6" t="n"/>
@@ -1048,22 +1042,22 @@
     </row>
     <row customHeight="1" ht="16" r="21" spans="1:11">
       <c r="A21" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="E21" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G21" s="6" t="n"/>
       <c r="H21" s="6" t="n"/>
@@ -1073,22 +1067,22 @@
     </row>
     <row customHeight="1" ht="16" r="22" spans="1:11">
       <c r="A22" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G22" s="6" t="n"/>
       <c r="H22" s="6" t="n"/>
@@ -1098,22 +1092,22 @@
     </row>
     <row customHeight="1" ht="16" r="23" spans="1:11">
       <c r="A23" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G23" s="6" t="n"/>
       <c r="H23" s="6" t="n"/>
@@ -1123,22 +1117,22 @@
     </row>
     <row customHeight="1" ht="16" r="24" spans="1:11">
       <c r="A24" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G24" s="6" t="n"/>
       <c r="H24" s="6" t="n"/>
@@ -1148,22 +1142,22 @@
     </row>
     <row customHeight="1" ht="16" r="25" spans="1:11">
       <c r="A25" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G25" s="6" t="n"/>
       <c r="H25" s="6" t="n"/>
@@ -1173,22 +1167,22 @@
     </row>
     <row customHeight="1" ht="16" r="26" spans="1:11">
       <c r="A26" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G26" s="6" t="n"/>
       <c r="H26" s="6" t="n"/>
@@ -1198,53 +1192,28 @@
     </row>
     <row customHeight="1" ht="16" r="27" spans="1:11">
       <c r="A27" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G27" s="6" t="n"/>
       <c r="H27" s="6" t="n"/>
       <c r="I27" s="6" t="n"/>
       <c r="J27" s="6" t="n"/>
       <c r="K27" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="16" r="28" spans="1:11">
-      <c r="A28" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="6" t="n"/>
-      <c r="H28" s="6" t="n"/>
-      <c r="I28" s="6" t="n"/>
-      <c r="J28" s="6" t="n"/>
-      <c r="K28" s="6" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
